--- a/locator.xlsx
+++ b/locator.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t xml:space="preserve">element</t>
   </si>
@@ -43,67 +43,67 @@
     <t xml:space="preserve">map_icon</t>
   </si>
   <si>
-    <t xml:space="preserve">//div[starts-with(@id, 'js-HA-') and contains(@id, '-map-icon') and contains(@class, 'tiles-icon map-icon')]</t>
+    <t xml:space="preserve">.//div[@class='tiles-icon map-icon']</t>
   </si>
   <si>
     <t xml:space="preserve">title</t>
   </si>
   <si>
-    <t xml:space="preserve">//div[@class='title']//a[starts-with(@id, 'js-HA-') and contains(@class, 'ellipsis-1-lines')]</t>
+    <t xml:space="preserve">.//div[@class='title']//a[starts-with(@id, 'js-') and contains(@class, 'ellipsis-1-lines')]</t>
   </si>
   <si>
     <t xml:space="preserve">price</t>
   </si>
   <si>
-    <t xml:space="preserve">//span[contains(@class, 'price-info') and contains(@class, 'js-price-value')]</t>
+    <t xml:space="preserve">.//span[contains(@class, 'price-info') and contains(@class, 'js-price-value')]</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
   </si>
   <si>
-    <t xml:space="preserve">//span[contains(@class, 'property-type')  and contains(@class, 'ellipsis')]</t>
+    <t xml:space="preserve">.//span[contains(@class, 'property-type')  and contains(@class, 'ellipsis')]</t>
   </si>
   <si>
     <t xml:space="preserve">rating</t>
   </si>
   <si>
-    <t xml:space="preserve">//span[@class='review-general']</t>
+    <t xml:space="preserve">.//span[@class='review-general']</t>
   </si>
   <si>
     <t xml:space="preserve">review</t>
   </si>
   <si>
-    <t xml:space="preserve">//span[@class='number-of-review']</t>
+    <t xml:space="preserve">.//span[@class='number-of-review']</t>
   </si>
   <si>
     <t xml:space="preserve">map_type</t>
   </si>
   <si>
-    <t xml:space="preserve">//div[@class='info-window-amenities ellipsis capitalize']</t>
+    <t xml:space="preserve">.//div[@class='info-window-amenities ellipsis capitalize']</t>
   </si>
   <si>
     <t xml:space="preserve">map_title</t>
   </si>
   <si>
-    <t xml:space="preserve">//a[@class='ellipsis-1-lines info-window-title font-12 font-semibold text-left no-underline']</t>
+    <t xml:space="preserve">.//a[@class='ellipsis-1-lines info-window-title font-12 font-semibold text-left no-underline']</t>
   </si>
   <si>
     <t xml:space="preserve">map_price</t>
   </si>
   <si>
-    <t xml:space="preserve">//div[@class='info-window-price']//span[contains(@class, 'tile-price color-dark ellipsis js-nearby-price-value')]</t>
+    <t xml:space="preserve">.//div[@class='info-window-price']//span[contains(@class, 'tile-price color-dark ellipsis js-nearby-price-value')]</t>
   </si>
   <si>
     <t xml:space="preserve">map_rating</t>
   </si>
   <si>
-    <t xml:space="preserve">//div[@class='info-window-review-ratings']//span[@class='text-bold review-general']</t>
+    <t xml:space="preserve">.//div[@class='info-window-review-ratings']//span[@class='text-bold review-general']</t>
   </si>
   <si>
     <t xml:space="preserve">map_review</t>
   </si>
   <si>
-    <t xml:space="preserve">//div[@class='info-window-review-ratings']//span[@class='ellipsis number-of-reviews']</t>
+    <t xml:space="preserve">.//div[@class='info-window-review-ratings']//span[@class='ellipsis number-of-reviews']</t>
   </si>
   <si>
     <t xml:space="preserve">detail_title</t>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t xml:space="preserve">//div[@class='js-tiles-container']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tile_individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[starts-with(@id, 'js-item-{index}') and contains(@class, 'js-property-tile')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@class='info-window-content color-dark']</t>
   </si>
 </sst>
 </file>
@@ -149,11 +161,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -169,6 +182,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,8 +231,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -341,221 +367,243 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/locator.xlsx
+++ b/locator.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t xml:space="preserve">element</t>
   </si>
@@ -103,37 +103,37 @@
     <t xml:space="preserve">map_review</t>
   </si>
   <si>
-    <t xml:space="preserve">.//div[@class='info-window-review-ratings']//span[@class='ellipsis number-of-reviews']</t>
+    <t xml:space="preserve">.//div[contains(@class, 'info-window-reviews')]//span[contains(@class, 'number-of-review')]</t>
   </si>
   <si>
     <t xml:space="preserve">detail_title</t>
   </si>
   <si>
-    <t xml:space="preserve">//h1[@class='font-bold js-ai-content-property-name']</t>
+    <t xml:space="preserve">.//h1[@class='font-bold js-ai-content-property-name']</t>
   </si>
   <si>
     <t xml:space="preserve">detail_type</t>
   </si>
   <si>
-    <t xml:space="preserve">//div[contains(@class, 'availability-title') ]</t>
+    <t xml:space="preserve">.//div[contains(@class, 'availability-title') ]</t>
   </si>
   <si>
     <t xml:space="preserve">detail_price</t>
   </si>
   <si>
-    <t xml:space="preserve">//span[@id='js-price-per-night']</t>
+    <t xml:space="preserve">.//div[@class='availability-price' and @id='js-default-price']//strong</t>
   </si>
   <si>
     <t xml:space="preserve">detail_rating</t>
   </si>
   <si>
-    <t xml:space="preserve">//strong[contains(@class, 'review-score')]</t>
+    <t xml:space="preserve">.//strong[contains(@class, 'review-score')]</t>
   </si>
   <si>
     <t xml:space="preserve">detail_review</t>
   </si>
   <si>
-    <t xml:space="preserve">//span[@id='js-review']</t>
+    <t xml:space="preserve">.//span[@class='rating-review']//span[contains(@class, 'new-text') or contains(@class, 'number-of-reviews')]</t>
   </si>
   <si>
     <t xml:space="preserve">tiles_container</t>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t xml:space="preserve">//div[@class='info-window-content color-dark']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detail_container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@id='js-details-page-container']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_review_new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.//div[@class='info-window-review-ratings']//span[@class='number-of-review']</t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -182,11 +194,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,16 +238,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -367,10 +370,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -585,25 +588,47 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
